--- a/data/income_statement/1digit/size/Q_IS_SMALL.xlsx
+++ b/data/income_statement/1digit/size/Q_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>Q-Human health and social work activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>Q-Human health and social work activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1109 +841,1254 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>2940766.99688</v>
+        <v>2966018.97157</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>2968693.27465</v>
+        <v>3064825.51992</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>3332924.68163</v>
+        <v>3421107.72084</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3600483.15601</v>
+        <v>3674528.6147</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>4126812.90167</v>
+        <v>4177710.433670001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>4501125.55843</v>
+        <v>4549024.3928</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4772142.95602</v>
+        <v>4940639.83196</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5136581.40824</v>
+        <v>5270756.76828</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>5699039.10861</v>
+        <v>5834346.50101</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6772833.845579999</v>
+        <v>6711783.76154</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>8329117.12229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8248852.11584</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>8682731.504000001</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2839847.05281</v>
+        <v>2866520.50301</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2869699.31183</v>
+        <v>2959787.78246</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>3222704.65956</v>
+        <v>3306156.05032</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>3484577.234</v>
+        <v>3552075.734790001</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3967491.981</v>
+        <v>4020041.037579999</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4353525.854859999</v>
+        <v>4402429.07358</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4603960.37213</v>
+        <v>4753634.88572</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4946054.444309999</v>
+        <v>5056545.95979</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>5464694.94692</v>
+        <v>5576221.952709999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6434769.851190001</v>
+        <v>6361804.999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7833902.6757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>7735151.676750001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8150805.666</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>25384.64235</v>
+        <v>25491.04308</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>25177.98751</v>
+        <v>29112.91262</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>17082.04669</v>
+        <v>16562.2408</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>28208.29742</v>
+        <v>27332.41147</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>63627.89276</v>
+        <v>59538.96549</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>50193.62029000001</v>
+        <v>52497.28533000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>55799.41866</v>
+        <v>61505.67022</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>36229.21879</v>
+        <v>35933.46519</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>64268.90749</v>
+        <v>59850.55567</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>130490.11809</v>
+        <v>150866.37929</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>217339.51586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>217881.16007</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>240557.807</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>75535.30172</v>
+        <v>74007.42548000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>73815.97531000001</v>
+        <v>75924.82484</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>93137.97537999999</v>
+        <v>98389.42972</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>87697.62459000001</v>
+        <v>95120.46844</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>95693.02790999999</v>
+        <v>98130.43060000002</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>97406.08328000001</v>
+        <v>94098.03389000002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>112383.16523</v>
+        <v>125499.27602</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>154297.74514</v>
+        <v>178277.3433</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>170075.2542</v>
+        <v>198273.99263</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>207573.8763</v>
+        <v>199112.38325</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>277874.93073</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>295819.27902</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>291368.031</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>21949.1819</v>
+        <v>22074.25262</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>18032.64398</v>
+        <v>19522.27529</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>15003.17662</v>
+        <v>15996.01019</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>16846.60078</v>
+        <v>16172.69973</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>17811.49709</v>
+        <v>17071.82726</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>17811.4664</v>
+        <v>20692.71086</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13712.87316</v>
+        <v>14092.45014</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14513.97357</v>
+        <v>25313.93374</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11508.79013</v>
+        <v>13165.18855</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>25736.46253</v>
+        <v>23515.59343</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>35447.93556000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>35795.28321</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>86040.59</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12873.35185</v>
+        <v>12985.25639</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9361.957279999999</v>
+        <v>10571.8295</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9578.352700000001</v>
+        <v>10642.03366</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>10682.07782</v>
+        <v>10674.58909</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>11207.89198</v>
+        <v>11123.65355</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>12372.20783</v>
+        <v>15780.93502</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>8268.39135</v>
+        <v>8450.584849999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8463.004650000001</v>
+        <v>19191.65202</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>8567.167549999998</v>
+        <v>10172.8636</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>20070.63568</v>
+        <v>18192.97634</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>25179.34589</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>25618.69650000001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>69028.258</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4233.70392</v>
+        <v>4233.515699999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>7079.93722</v>
+        <v>7349.471259999999</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>4121.24603</v>
+        <v>4094.10232</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>4030.43835</v>
+        <v>4038.51758</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4244.25462</v>
+        <v>3566.75252</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3428.61334</v>
+        <v>2898.65925</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3663.81724</v>
+        <v>3563.62901</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3268.13104</v>
+        <v>3341.30689</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>810.5887299999999</v>
+        <v>2316.77193</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3050.96477</v>
+        <v>2725.71625</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7296.27972</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7204.339980000001</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10464.538</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>4842.12613</v>
+        <v>4855.48053</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1590.74948</v>
+        <v>1600.97453</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1303.57789</v>
+        <v>1259.87421</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2134.08461</v>
+        <v>1459.59306</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2359.35049</v>
+        <v>2381.42119</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>2010.64523</v>
+        <v>2013.11659</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1780.66457</v>
+        <v>2078.23628</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2782.83788</v>
+        <v>2780.97483</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>2131.03385</v>
+        <v>675.5530200000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2614.86208</v>
+        <v>2596.90084</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2972.30995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2972.24673</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6547.794</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>2918817.814979999</v>
+        <v>2943944.71895</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>2950660.63067</v>
+        <v>3045303.24463</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>3317921.50501</v>
+        <v>3405111.71065</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3583636.555230001</v>
+        <v>3658355.91497</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>4109001.40458</v>
+        <v>4160638.60641</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4483314.092030001</v>
+        <v>4528331.68194</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4758430.08286</v>
+        <v>4926547.38182</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5122067.43467</v>
+        <v>5245442.83454</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>5687530.318480001</v>
+        <v>5821181.31246</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6747097.383049999</v>
+        <v>6688268.168109999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>8293669.186730001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8213056.832629999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>8596690.914000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1873730.40095</v>
+        <v>1921751.85684</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1916361.54418</v>
+        <v>2026835.217049999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2162760.40026</v>
+        <v>2247866.2538</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2349134.7266</v>
+        <v>2414760.22389</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2714950.87892</v>
+        <v>2800516.35491</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3004835.44819</v>
+        <v>3120820.11616</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3168917.564299999</v>
+        <v>3358929.31163</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3495757.5312</v>
+        <v>3608210.83825</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3815295.99724</v>
+        <v>3953902.35986</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4767183.33223</v>
+        <v>4785731.591100001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>6014975.95574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6023684.15805</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6082928.909</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>18062.27635</v>
+        <v>17773.86915</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>22513.8605</v>
+        <v>23250.53056</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>34360.3891</v>
+        <v>36440.45664</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>40202.53895999999</v>
+        <v>37861.70367</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>45173.75024</v>
+        <v>46721.71952</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>42465.31872</v>
+        <v>43373.20385</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>43361.60085</v>
+        <v>45098.12064</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>47110.12882000001</v>
+        <v>44075.19159</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>78573.04973999999</v>
+        <v>80778.14982999999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>108142.82679</v>
+        <v>106498.05227</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>176643.22789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>172323.91794</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>160767.803</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>156566.50892</v>
+        <v>154244.3397</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>142008.70908</v>
+        <v>154754.35899</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>156515.17981</v>
+        <v>152270.03226</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>150196.93819</v>
+        <v>147270.63361</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>166650.39373</v>
+        <v>174148.18932</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>155750.94492</v>
+        <v>156416.0305</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>184375.58733</v>
+        <v>198110.46596</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>218206.21812</v>
+        <v>210323.15805</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>288734.2274300001</v>
+        <v>295258.27021</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>391846.9084199999</v>
+        <v>389352.87004</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>602388.0050600001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>603630.07198</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>609829.726</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1696208.84156</v>
+        <v>1747394.50633</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1744421.85499</v>
+        <v>1841683.71664</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1966127.78395</v>
+        <v>2054547.97236</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2153671.73679</v>
+        <v>2222911.36806</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2498451.67959</v>
+        <v>2574675.34545</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2779328.59124</v>
+        <v>2894162.9271</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2919847.89621</v>
+        <v>3092171.76455</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3211322.94083</v>
+        <v>3330214.17932</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>3423972.10309</v>
+        <v>3555188.70998</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>4248894.86463</v>
+        <v>4275206.32246</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>5211681.40933</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5224353.67893</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>5280210.653</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>2892.77412</v>
+        <v>2339.14166</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>7417.119610000001</v>
+        <v>7146.610860000002</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5757.047399999999</v>
+        <v>4607.79254</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>5063.51266</v>
+        <v>6716.51855</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4675.055359999999</v>
+        <v>4971.10062</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>27290.59331</v>
+        <v>26867.95471</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>21332.47991</v>
+        <v>23548.96048</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>19118.24343</v>
+        <v>23598.30928999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>24016.61698</v>
+        <v>22677.22984</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>18298.73239</v>
+        <v>14674.34633</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>24263.31346</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>23376.4892</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>32120.727</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>1045087.41403</v>
+        <v>1022192.86211</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>1034299.08649</v>
+        <v>1018468.02758</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1155161.10475</v>
+        <v>1157245.45685</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1234501.82863</v>
+        <v>1243595.69108</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1394050.52566</v>
+        <v>1360122.2515</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1478478.64384</v>
+        <v>1407511.56578</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1589512.51856</v>
+        <v>1567618.07019</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1626309.90347</v>
+        <v>1637231.99629</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1872234.32124</v>
+        <v>1867278.9526</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1979914.05082</v>
+        <v>1902536.57701</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2278693.23099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2189372.67458</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2513762.005</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>679620.51914</v>
+        <v>679373.0160400001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>697537.9495899999</v>
+        <v>714093.0480399999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>806074.47069</v>
+        <v>810290.0881899999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>846231.1958199999</v>
+        <v>844118.89138</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>981877.39417</v>
+        <v>960089.66874</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1064731.04374</v>
+        <v>1042562.48992</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1107056.39028</v>
+        <v>1112499.49772</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1191866.02598</v>
+        <v>1197890.61253</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1342962.82589</v>
+        <v>1336684.27569</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1469687.53338</v>
+        <v>1426355.28168</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1739514.92468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1726451.87235</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1714516.793</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2072.15571</v>
+        <v>2064.17288</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1444.16537</v>
+        <v>1415.54777</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>1683.27261</v>
+        <v>1479.71191</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>2534.75066</v>
+        <v>2027.93162</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1843.15443</v>
+        <v>1546.07745</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1900.39457</v>
+        <v>1781.7148</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1399.70554</v>
+        <v>1604.32404</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>2631.46962</v>
+        <v>2630.19187</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1857.70745</v>
+        <v>1905.18111</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2395.34127</v>
+        <v>2318.09829</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5583.36992</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5569.05156</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7503.693</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>50698.14367999999</v>
+        <v>50119.94272</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>49875.25379</v>
+        <v>50030.0524</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>62952.83875</v>
+        <v>62479.1022</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>62673.14774999999</v>
+        <v>62950.75927</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>77030.7677</v>
+        <v>76132.07335000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>79635.14986000002</v>
+        <v>78254.91734000001</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>90188.13288999999</v>
+        <v>93187.22661</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>104487.2046</v>
+        <v>104243.71057</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>120820.60744</v>
+        <v>125906.25828</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>140348.05827</v>
+        <v>137251.71195</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>186786.27005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>187025.72931</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>165511.29</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>626850.21975</v>
+        <v>627188.9004400001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>646218.53043</v>
+        <v>662647.44787</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>741438.35933</v>
+        <v>746331.27408</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>781023.2974100001</v>
+        <v>779140.2004899998</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>903003.4720399999</v>
+        <v>882411.51794</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>983195.49931</v>
+        <v>962525.85778</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1015468.55185</v>
+        <v>1017707.94707</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1084747.35176</v>
+        <v>1091016.71009</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1220284.511</v>
+        <v>1208872.8363</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1326944.13384</v>
+        <v>1286785.47144</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1547145.28471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1533857.09148</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1541501.81</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>365466.89489</v>
+        <v>342819.84607</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>336761.1369</v>
+        <v>304374.97954</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>349086.6340600001</v>
+        <v>346955.36866</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>388270.6328099999</v>
+        <v>399476.7997</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>412173.1314899999</v>
+        <v>400032.5827600001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>413747.6000999999</v>
+        <v>364949.07586</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>482456.1282799999</v>
+        <v>455118.57247</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>434443.87749</v>
+        <v>439341.38376</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>529271.49535</v>
+        <v>530594.67691</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>510226.51744</v>
+        <v>476181.2953300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>539178.3063099999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>462920.80223</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>799245.2120000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>34298.97022</v>
+        <v>47956.81845999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>35193.18594</v>
+        <v>46840.94751000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>39504.78062999999</v>
+        <v>59234.30034</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>41448.82933</v>
+        <v>50796.42356</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>67135.18561</v>
+        <v>63616.23042</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>66804.03709</v>
+        <v>65668.15701</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>90011.52778</v>
+        <v>109178.86989</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>100028.45474</v>
+        <v>137110.16094</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>92439.85616</v>
+        <v>137845.69682</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>236878.25041</v>
+        <v>220806.04086</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>200777.02208</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>183835.92072</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>229059.555</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2394.03246</v>
+        <v>10031.51231</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4254.04959</v>
+        <v>6006.509109999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2924.72093</v>
+        <v>5160.01515</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>5114.06333</v>
+        <v>5155.530970000001</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>4016.476110000001</v>
+        <v>4580.23429</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>9782.974279999999</v>
+        <v>6887.23217</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2803.320499999999</v>
+        <v>4287.78473</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3382.45631</v>
+        <v>5157.42603</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3863.60191</v>
+        <v>6517.387540000001</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>12914.81548</v>
+        <v>4646.8308</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6928.79954</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1274.80536</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3098.042</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>309.18647</v>
+        <v>4611.821730000001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>821.4773400000001</v>
+        <v>2624.24181</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>251.74795</v>
+        <v>14442.55158</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1222.8225</v>
+        <v>2179.52433</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>1344.60619</v>
+        <v>2416.96601</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>826.31503</v>
+        <v>2309.06798</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1172.16484</v>
+        <v>1304.64969</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>4070.71809</v>
+        <v>1983.24062</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>1427.31766</v>
+        <v>1608.37353</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>3238.29747</v>
+        <v>5705.41701</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>2337.91676</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2046.80977</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2724.981</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11138.89363</v>
+        <v>11352.97577</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>9972.141949999999</v>
+        <v>12153.57875</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>10511.15928</v>
+        <v>11666.94918</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>12218.01867</v>
+        <v>13927.74745</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>16102.04627</v>
+        <v>14040.05659</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>17088.29489</v>
+        <v>18850.93158</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>20841.24651</v>
+        <v>25969.24745</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>20826.62787</v>
+        <v>30536.07327</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>27902.54139</v>
+        <v>34946.89101</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>48435.36354</v>
+        <v>33798.16999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>57397.01794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>43975.29659000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>39364.011</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>60.62446</v>
+        <v>177.05434</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>323.5880099999999</v>
+        <v>393.84419</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>369.2697699999999</v>
+        <v>368.21023</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>288.38809</v>
+        <v>251.43771</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>148.75542</v>
+        <v>85.51138</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>71.70897000000001</v>
+        <v>62.36278</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>235.51313</v>
+        <v>484.61198</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>190.60541</v>
+        <v>209.50341</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>158.48073</v>
+        <v>118.78503</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>55.97708</v>
+        <v>55.55183</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>246.50468</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>245.23316</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>418.074</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>750.59757</v>
+        <v>755.8578500000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>417.46189</v>
+        <v>383.83519</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>582.94547</v>
+        <v>591.0532099999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>591.31312</v>
+        <v>442.31312</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>402.90187</v>
+        <v>615.55749</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>810.9010299999999</v>
+        <v>612.4224899999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1011.25094</v>
+        <v>1068.98872</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>197.21056</v>
+        <v>201.648</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>340.30966</v>
+        <v>315.76216</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>971.2880600000001</v>
+        <v>970.8533100000001</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>1027.32258</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1945.518</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>924.9329300000001</v>
+        <v>840.0516199999998</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>885.2989600000001</v>
+        <v>900.83392</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1783.33259</v>
+        <v>1586.32176</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1165.32922</v>
+        <v>1654.77508</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1256.59383</v>
+        <v>4243.801030000001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1711.56149</v>
+        <v>2144.26043</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1530.61092</v>
+        <v>2248.05713</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>2045.87696</v>
+        <v>1908.5549</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1347.75923</v>
+        <v>2592.42316</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>3856.20492</v>
+        <v>3271.48269</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>8767.021419999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>16331.94815</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12082.678</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>10219.39831</v>
+        <v>11440.35714</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>9208.444090000001</v>
+        <v>12762.15694</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>9673.7716</v>
+        <v>13382.95527</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4925.96297</v>
+        <v>11248.58492</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>13142.49731</v>
+        <v>15881.07538</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>14758.68144</v>
+        <v>19469.42767</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>28114.70363</v>
+        <v>50907.70951</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>23775.90561</v>
+        <v>49563.43487999999</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>25069.58897</v>
+        <v>59981.38422</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>118205.55278</v>
+        <v>131819.57681</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>63072.74355</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>64118.43317</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>100891.907</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>73.99649000000001</v>
+        <v>40.31096</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>43.09428</v>
@@ -2060,7 +2106,7 @@
         <v>159.16863</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>50.15021000000001</v>
+        <v>40.22351</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>11.22201</v>
@@ -2074,17 +2120,22 @@
       <c r="M33" s="48" t="n">
         <v>1.16524</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>178.988</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>23.95678</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>167.22513</v>
+        <v>431.39673</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>0.00012</v>
@@ -2093,10 +2144,10 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>97.17149999999999</v>
+        <v>91.301</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>724.9678699999999</v>
+        <v>226.55987</v>
       </c>
       <c r="I34" s="48" t="n">
         <v>73.00436999999999</v>
@@ -2105,271 +2156,306 @@
         <v>0.02222</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>59.31330999999999</v>
+        <v>59.2992</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>2.09124</v>
+        <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
         <v>10.54083</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>56.762</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>8403.351119999999</v>
+        <v>8682.919959999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9100.404699999999</v>
+        <v>11141.45659</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>13359.41809</v>
+        <v>11987.82901</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15889.90881</v>
+        <v>15903.48736</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>30431.06741</v>
+        <v>21468.65755</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>20869.46346</v>
+        <v>14946.72341</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>34179.56273</v>
+        <v>22794.5928</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>45527.80970000001</v>
+        <v>47539.0356</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>32267.7577</v>
+        <v>31702.20537</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>47492.45252000001</v>
+        <v>38831.95109999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>60987.98954</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>54804.36586999999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>68298.594</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>23635.75712</v>
+        <v>25232.71389</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>18219.33889</v>
+        <v>21984.5827</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>30000.97555</v>
+        <v>43922.79878</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>18747.72736</v>
+        <v>21762.02421</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>26222.38051</v>
+        <v>37969.76772</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>32179.58628</v>
+        <v>41337.38851</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>37668.45236</v>
+        <v>89852.19223</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>35652.31926</v>
+        <v>121319.90889</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>38942.85027999999</v>
+        <v>101708.75409</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>145694.10464</v>
+        <v>204661.92918</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>81655.76203999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>86884.84715</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>129736.389</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>2353.5422</v>
+        <v>2318.66575</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>2226.98841</v>
+        <v>2441.44277</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>1915.38853</v>
+        <v>1908.82936</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1898.10174</v>
+        <v>2136.67142</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2207.21131</v>
+        <v>2055.50551</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2430.46103</v>
+        <v>2555.07295</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2109.76917</v>
+        <v>2150.59359</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>3727.256100000001</v>
+        <v>5102.14062</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2711.10429</v>
+        <v>2859.37461</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2196.58333</v>
+        <v>2096.77694</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4144.15615</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>3663.5286</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>3937.978</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>4425.561580000001</v>
+        <v>4358.902700000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>1946.50066</v>
+        <v>1958.20931</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1548.67261</v>
+        <v>1602.00919</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>2261.63639</v>
+        <v>2238.49812</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3889.84846</v>
+        <v>3366.44618</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>5635.625510000001</v>
+        <v>5529.852279999999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5397.83023</v>
+        <v>6009.63757</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>7929.77078</v>
+        <v>8450.002060000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4136.29004</v>
+        <v>5098.093190000001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>4899.626480000001</v>
+        <v>4679.74263</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>10068.39996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>8427.23871</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3050.877</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>78.22620999999999</v>
+        <v>83.83215</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>227.65481</v>
+        <v>218.80724</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>290.8376499999999</v>
+        <v>279.53654</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>360.6714099999999</v>
+        <v>349.62936</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>775.71241</v>
+        <v>1167.32012</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>206.81435</v>
+        <v>668.2977099999999</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1416.90754</v>
+        <v>1786.21368</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>61.97892</v>
+        <v>180.38663</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2940.729139999999</v>
+        <v>225.4236</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6920.2502</v>
+        <v>951.5957100000001</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1008.72173</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>985.42308</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>2130.534</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>11357.73009</v>
+        <v>13092.66602</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>8118.657649999999</v>
+        <v>10508.76741</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>13041.4239</v>
+        <v>26637.02993</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>5537.367200000001</v>
+        <v>7896.030930000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>13790.9286</v>
+        <v>25135.07913</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>12009.31619</v>
+        <v>22034.95525</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>20857.72152</v>
+        <v>71260.24385000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>14371.02328</v>
+        <v>88633.44383</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>20518.02976</v>
+        <v>83087.8683</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>123045.12256</v>
+        <v>189420.0033</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>58006.86394</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>66844.61590999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>110027.695</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>169.37301</v>
+        <v>140.03592</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>211.57234</v>
+        <v>214.6902</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>81.61607000000001</v>
+        <v>78.15181</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>1.86894</v>
+        <v>3.99201</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>0.006549999999999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2384,34 +2470,39 @@
         <v>46.10665</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>294.2618</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>284.79029</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>1604.747</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>14.13052</v>
+        <v>14.16912</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>6.51342</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>11.86771</v>
+        <v>9.40757</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>25.35786</v>
+        <v>0.009470000000000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>261.1691</v>
+        <v>261.16918</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>65.73794000000001</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>10.81308</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5237.19351</v>
+        <v>5224.442230000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>5481.451599999999</v>
+        <v>6636.15235</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>13111.16908</v>
+        <v>13407.83438</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>8662.723820000001</v>
+        <v>9137.1929</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>5297.50408</v>
+        <v>5984.24105</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>11831.63079</v>
+        <v>10483.47238</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>7886.223869999999</v>
+        <v>8645.50354</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9550.049570000001</v>
+        <v>18941.69514</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>8590.634819999999</v>
+        <v>10391.93216</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>8586.415419999999</v>
+        <v>7467.70395</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8133.35846</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>6679.25056</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8984.558000000001</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>59322.86511</v>
+        <v>61717.60192</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>45682.64551</v>
+        <v>57801.94566</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>49849.22718000001</v>
+        <v>72468.03143</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>59384.29992</v>
+        <v>74811.09131999999</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>61452.80368</v>
+        <v>72841.39681000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>75397.8977</v>
+        <v>120315.96464</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>88490.73508</v>
+        <v>138967.81779</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>93720.94399</v>
+        <v>155607.50708</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>104154.19645</v>
+        <v>156640.76357</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>170762.91224</v>
+        <v>192945.35611</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>180871.00902</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>191227.12086</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>184057.913</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>55924.02221</v>
+        <v>58088.0708</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>44011.80385</v>
+        <v>56139.07803</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>47994.90417</v>
+        <v>68623.66087000001</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>56464.34227</v>
+        <v>71157.79809</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>58145.26438</v>
+        <v>68768.22473</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>70839.50509000001</v>
+        <v>115626.53082</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>83500.18662000001</v>
+        <v>127652.17262</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>88812.18856000001</v>
+        <v>137053.51398</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>98153.84219</v>
+        <v>135046.7557</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>155968.1727</v>
+        <v>180420.52171</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>164978.98095</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>183703.73224</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>175803.253</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>3398.8429</v>
+        <v>3629.53112</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>1670.84166</v>
+        <v>1662.86763</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>1854.32301</v>
+        <v>3844.37056</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>2919.95765</v>
+        <v>3653.29323</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3307.5393</v>
+        <v>4073.17208</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>4558.392610000001</v>
+        <v>4689.43382</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4990.54846</v>
+        <v>11315.64517</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>4908.755430000001</v>
+        <v>18553.9931</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6000.35426</v>
+        <v>21594.00787</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>14794.73954</v>
+        <v>12524.8344</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15892.02807</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>7523.388620000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>8254.66</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>316807.24288</v>
+        <v>303826.34872</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>308052.3384400001</v>
+        <v>271429.39869</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>308741.21196</v>
+        <v>289798.83879</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>351587.43486</v>
+        <v>353700.10773</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>391633.13291</v>
+        <v>352837.64865</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>372974.15321</v>
+        <v>268963.87972</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>446308.4686199999</v>
+        <v>335477.43234</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>405099.06898</v>
+        <v>299524.12873</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>478614.3047799999</v>
+        <v>410090.85607</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>430647.75097</v>
+        <v>299380.0509</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>477428.55733</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>368644.7549400001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>714510.465</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>19308.33798</v>
+        <v>18780.9082</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>21189.28762</v>
+        <v>27250.48681</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>35766.82156</v>
+        <v>32997.18995</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>37236.81604</v>
+        <v>38966.88304000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>60113.95792</v>
+        <v>57572.27384999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>57308.10225</v>
+        <v>48409.50928</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>51769.98286</v>
+        <v>62994.11451</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>112889.95066</v>
+        <v>113515.06613</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>70839.17151999999</v>
+        <v>96942.97985999999</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>107029.84784</v>
+        <v>209752.29121</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>125678.50948</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>105034.38053</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>106043.423</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>724.5686199999999</v>
+        <v>846.36232</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>819.8566999999999</v>
+        <v>827.50053</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>307.49942</v>
+        <v>293.38108</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>504.6089999999999</v>
+        <v>430.83835</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>702.54327</v>
+        <v>724.7051300000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1836.53467</v>
+        <v>718.84372</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1297.12124</v>
+        <v>1156.82342</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>749.8211000000001</v>
+        <v>717.13501</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>685.79492</v>
+        <v>4411.74685</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>880.52915</v>
+        <v>422.14908</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1052.95398</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>922.54284</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>4328.278</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>18583.76936</v>
+        <v>17934.54588</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20369.43092</v>
+        <v>26422.98628</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>35459.32214</v>
+        <v>32703.80887</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>36732.20704</v>
+        <v>38536.04469</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>59411.41465</v>
+        <v>56847.56872</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>55471.56758</v>
+        <v>47690.66556</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>50472.86162</v>
+        <v>61837.29109</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>112140.12956</v>
+        <v>112797.93112</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>70153.37659999999</v>
+        <v>92531.23301</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>106149.31869</v>
+        <v>209330.14213</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>124625.5555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>104111.83769</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>101715.145</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>22763.9757</v>
+        <v>26874.62089000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>24703.14648</v>
+        <v>27217.903</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>415897.7926200001</v>
+        <v>413773.79501</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>65574.25139</v>
+        <v>57004.82659999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>44392.64548</v>
+        <v>39697.24667</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>256023.05839</v>
+        <v>255861.11269</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>57424.58473999999</v>
+        <v>73589.90465000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>317161.11891</v>
+        <v>352852.85093</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>57426.98543</v>
+        <v>58477.22614999999</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>276914.86311</v>
+        <v>226565.23325</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>103465.26615</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>82986.02520999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>70849.96000000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>180.34439</v>
+        <v>466.7086200000001</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>450.31419</v>
+        <v>677.37122</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>545.04254</v>
+        <v>2249.32206</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>393.04141</v>
+        <v>376.98866</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>2447.71225</v>
+        <v>1490.05813</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>8699.245710000001</v>
+        <v>12883.5932</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>10385.00671</v>
+        <v>9427.281110000002</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3777.84</v>
+        <v>10543.13818</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1344.38002</v>
+        <v>3381.57717</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>836.3058300000001</v>
+        <v>1263.25833</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>443.11956</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>2218.93964</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>5601.366</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>3207.63511</v>
+        <v>3192.34904</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2071.21959</v>
+        <v>2107.79312</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4833.762</v>
+        <v>4981.96157</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1367.5112</v>
+        <v>849.16797</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3725.35048</v>
+        <v>3669.24631</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2848.54052</v>
+        <v>3064.74291</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3977.43164</v>
+        <v>2572.68904</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>2068.82955</v>
+        <v>4672.9733</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1376.29333</v>
+        <v>1347.42557</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>3115.04357</v>
+        <v>2475.13715</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1836.58827</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1715.83222</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>2641.933</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>19375.9962</v>
+        <v>23215.56323</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22181.6127</v>
+        <v>24432.73866</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>410518.98808</v>
+        <v>406542.51138</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>63813.69878</v>
+        <v>55778.66997</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>38219.58275</v>
+        <v>34537.94223</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>244475.27216</v>
+        <v>239912.77658</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>43062.14639</v>
+        <v>61589.93450000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>311314.44936</v>
+        <v>337636.73945</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>54706.31208</v>
+        <v>53748.22340999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>272963.51371</v>
+        <v>222826.83777</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>101185.55832</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>79051.25335000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>62606.661</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>313351.60516</v>
+        <v>295732.6360300001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>304538.47958</v>
+        <v>271461.9825</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-71389.7591</v>
+        <v>-90977.76626999999</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>323249.99951</v>
+        <v>335662.1641699999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>407354.4453500001</v>
+        <v>370712.67583</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>174259.19707</v>
+        <v>61512.27631000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>440653.86674</v>
+        <v>324881.6422</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>200827.90073</v>
+        <v>60186.34393</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>492026.49087</v>
+        <v>448556.6097800001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>260762.7357</v>
+        <v>282567.10886</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>499641.80066</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>390693.11026</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>749703.928</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>64211.46961</v>
+        <v>60872.74126</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>64145.46137999999</v>
+        <v>61477.85017000001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>66006.51877000001</v>
+        <v>64195.47790000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>73722.42874</v>
+        <v>72997.43961</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>90070.28211</v>
+        <v>83328.55615999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>88066.72838</v>
+        <v>85260.92557000001</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>101247.39828</v>
+        <v>95597.40626999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>103215.09777</v>
+        <v>96270.52591</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>112299.83915</v>
+        <v>108503.06165</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>128580.05426</v>
+        <v>111262.17979</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>154125.84859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>129286.34485</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>171051.156</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>249140.13555</v>
+        <v>234859.89477</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>240393.0182</v>
+        <v>209984.13233</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-137396.27787</v>
+        <v>-155173.24417</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>249527.57077</v>
+        <v>262664.72456</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>317284.16324</v>
+        <v>287384.11967</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>86192.46868999999</v>
+        <v>-23748.64925999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>339406.46846</v>
+        <v>229284.23593</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>97612.80296000002</v>
+        <v>-36084.18197999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>379726.65172</v>
+        <v>340053.5481300001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>132182.68144</v>
+        <v>171304.92907</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>345515.95207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>261406.7654099999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>578652.772</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>2841</v>
+        <v>2603</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>2979</v>
+        <v>2729</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3050</v>
+        <v>2807</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3235</v>
+        <v>2931</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3488</v>
+        <v>3022</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3556</v>
+        <v>3078</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>3683</v>
+        <v>3160</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3816</v>
+        <v>3261</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>4078</v>
+        <v>3374</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3486</v>
+        <v>3207</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>3429</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>